--- a/biology/Zoologie/Jaseur_du_Japon/Jaseur_du_Japon.xlsx
+++ b/biology/Zoologie/Jaseur_du_Japon/Jaseur_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombycilla japonica
 Le Jaseur du Japon (Bombycilla japonica) est une espèce de passereaux frugivores migrateurs habitant en Asie du Nord-Est.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jaseur du Japon mesure jusqu'à 16 cm de long[1]. Il a une huppe sur la tête, des plaquettes rouges sur les ailes et une bavette noire sous le bec.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jaseur du Japon mesure jusqu'à 16 cm de long. Il a une huppe sur la tête, des plaquettes rouges sur les ailes et une bavette noire sous le bec.
 Il se nourrit surtout de baies.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jaseur du Japon vit dans les forêts de l'est de la Sibérie et il hiverne au Japon et en Corée.</t>
